--- a/Docs/01801.xlsx
+++ b/Docs/01801.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Python\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Python\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="1021">
   <si>
     <t>time</t>
   </si>
@@ -2872,22 +2872,6 @@
   </si>
   <si>
     <t>Sell</t>
-  </si>
-  <si>
-    <r>
-      <t>买入点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> B1</t>
-    </r>
   </si>
   <si>
     <t>17.7入</t>
@@ -2898,35 +2882,121 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>标记1</t>
+    <t>最高点。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>18块大量成交，是锚点</t>
+    <t>回1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>标记2</t>
+    <t>回2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>讲道理这里要卖了。</t>
+    <t>模式</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>又涨了。</t>
+    <t>两价平衡</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>但是呢，sell肯定要比buy价低的。</t>
+    <t>回1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>S9 为什么这里不用卖？</t>
+    <t>新低</t>
+  </si>
+  <si>
+    <t>回1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1这里出现卖2标记了。 2两个标记都是sell型的。 3sell价格是上涨的</t>
+    <t>B21</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B22</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>追买</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>转1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>转1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新低</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B29不买</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新低</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里应该买呢！！</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后日了狗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新低</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B11</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>反1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>反2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S119</t>
+  </si>
+  <si>
+    <t>S119</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>反2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2934,28 +3004,85 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>卖出点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> S1</t>
-    </r>
+    <t>交易</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>最高点。</t>
+    <t>收益</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>直接跳水-3价</t>
+    <t>新高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新低</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回2</t>
+  </si>
+  <si>
+    <t>回2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B299</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B229</t>
+  </si>
+  <si>
+    <t>B229</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低！</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.12+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>转2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S19</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.4-</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>转2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B292</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大陷阱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2963,73 +3090,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">B292 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>回2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>止损点</t>
+    <t>B291</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>向下探到</t>
+    <t>回2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>模式</t>
+    <t>B292</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>两价平衡</t>
+    <t>下不去了？</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>如期下跌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>回1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1S</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>止损</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy型下跌和buy型上升说明啥？</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sell价的新低，说明没有人在底部挂价充实底部</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-1</t>
-  </si>
-  <si>
-    <t>回1 因为这里是同1时间，所以只能做为一个信号呢。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新低出现。。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新低</t>
-  </si>
-  <si>
-    <t>sell新低出现</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>回1</t>
+    <t>回2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3037,27 +3122,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>B22</t>
+    <t>17.68+</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>追买</t>
+    <t>B23</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>买1价都抬到这里了！</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.12入手</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9 比前高，不卖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新高价</t>
+    <t>新高</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3069,74 +3142,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>转1</t>
+    <t>17.58-</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>18.42卖出</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高价</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新低</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B29不买</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B222</t>
-  </si>
-  <si>
-    <t>但是可能底部到了？</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>回2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新低</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B223</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有1个buy</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell价在新低。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里应该买呢！！</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后日了狗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B291</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>回3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>回2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新低</t>
+    <t>转3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3144,7 +3154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3209,24 +3219,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3259,7 +3256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3414,8 +3411,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -3430,6 +3442,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3465,89 +3480,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="计算" xfId="4" builtinId="22"/>
     <cellStyle name="警告文本" xfId="5" builtinId="11"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="输出" xfId="6" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3567,7 +3515,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3846,15 +3794,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1438"/>
+  <dimension ref="A1:K1438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="K188" sqref="K188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U191" sqref="U191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3869,10 +3820,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>956</v>
+      </c>
+      <c r="J1" t="s">
+        <v>984</v>
+      </c>
+      <c r="K1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3889,11 +3846,11 @@
         <v>948</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3">
@@ -3910,11 +3867,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -3930,15 +3887,15 @@
       <c r="F4" t="s">
         <v>949</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G4" s="4" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -3954,15 +3911,15 @@
       <c r="F5" t="s">
         <v>950</v>
       </c>
-      <c r="H5" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J5" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -3979,11 +3936,11 @@
         <v>950</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7">
@@ -4000,14 +3957,14 @@
         <v>950</v>
       </c>
       <c r="H7" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -4024,7 +3981,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4044,8 +4001,11 @@
       <c r="F9" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G9" s="4" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4066,7 +4026,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4086,8 +4046,11 @@
       <c r="F11" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4107,8 +4070,11 @@
       <c r="F12" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4128,8 +4094,11 @@
       <c r="F13" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4150,10 +4119,10 @@
         <v>948</v>
       </c>
       <c r="H14" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4173,11 +4142,11 @@
       <c r="F15" t="s">
         <v>949</v>
       </c>
-      <c r="H15" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4198,7 +4167,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4218,8 +4187,11 @@
       <c r="F17" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G17" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4239,8 +4211,11 @@
       <c r="F18" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4261,10 +4236,10 @@
         <v>950</v>
       </c>
       <c r="H19" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4285,7 +4260,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4305,17 +4280,17 @@
       <c r="F21" t="s">
         <v>950</v>
       </c>
+      <c r="G21" s="4" t="s">
+        <v>980</v>
+      </c>
       <c r="H21" t="s">
-        <v>956</v>
-      </c>
-      <c r="I21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L21" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+        <v>978</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4335,14 +4310,11 @@
       <c r="F22" t="s">
         <v>949</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="L22" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4362,11 +4334,8 @@
       <c r="F23" t="s">
         <v>949</v>
       </c>
-      <c r="H23" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4387,7 +4356,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4407,8 +4376,11 @@
       <c r="F25" s="12" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G25" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4428,11 +4400,8 @@
       <c r="F26" s="20" t="s">
         <v>948</v>
       </c>
-      <c r="H26" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4453,13 +4422,10 @@
         <v>950</v>
       </c>
       <c r="H27" t="s">
-        <v>956</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4480,10 +4446,10 @@
         <v>948</v>
       </c>
       <c r="H28" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4503,8 +4469,15 @@
       <c r="F29" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J29" t="s">
+        <v>983</v>
+      </c>
+      <c r="K29">
+        <f>ROUND(0.6/17.7*100,3)</f>
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4525,7 +4498,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4545,11 +4518,11 @@
       <c r="F31" t="s">
         <v>949</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G31" s="25" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4569,11 +4542,11 @@
       <c r="F32" t="s">
         <v>950</v>
       </c>
-      <c r="H32" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G32" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4583,8 +4556,8 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>870</v>
+      <c r="D33">
+        <v>18.22</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
@@ -4594,10 +4567,10 @@
         <v>950</v>
       </c>
       <c r="H33" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4618,7 +4591,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4638,8 +4611,11 @@
       <c r="F35" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G35" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4660,7 +4636,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4681,10 +4657,10 @@
         <v>949</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4705,7 +4681,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4726,7 +4702,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4747,7 +4723,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4767,9 +4743,8 @@
       <c r="F41" t="s">
         <v>950</v>
       </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4790,7 +4765,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4811,7 +4786,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4831,17 +4806,11 @@
       <c r="F44" t="s">
         <v>950</v>
       </c>
-      <c r="H44" t="s">
-        <v>968</v>
-      </c>
-      <c r="I44">
-        <v>18.16</v>
-      </c>
-      <c r="K44" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G44" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4861,8 +4830,11 @@
       <c r="F45" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H45" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4882,8 +4854,14 @@
       <c r="F46" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G46" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="H46" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4904,7 +4882,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4924,11 +4902,8 @@
       <c r="F48" t="s">
         <v>949</v>
       </c>
-      <c r="G48" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4948,12 +4923,15 @@
       <c r="F49" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G49" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C50">
@@ -4969,12 +4947,15 @@
       <c r="F50" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G50" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C51">
@@ -4990,18 +4971,15 @@
       <c r="F51" t="s">
         <v>949</v>
       </c>
-      <c r="G51" t="s">
-        <v>973</v>
-      </c>
-      <c r="K51" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H51" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C52">
@@ -5017,21 +4995,15 @@
       <c r="F52" t="s">
         <v>949</v>
       </c>
-      <c r="G52" t="s">
-        <v>967</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="I52">
-        <v>18.14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H52" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C53">
@@ -5047,12 +5019,15 @@
       <c r="F53" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H53" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C54">
@@ -5068,8 +5043,14 @@
       <c r="F54" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G54" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="H54" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5089,14 +5070,9 @@
       <c r="F55" t="s">
         <v>950</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5117,16 +5093,10 @@
         <v>950</v>
       </c>
       <c r="G56" t="s">
-        <v>981</v>
-      </c>
-      <c r="H56" t="s">
-        <v>975</v>
-      </c>
-      <c r="I56" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5147,7 +5117,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5167,11 +5137,11 @@
       <c r="F58" t="s">
         <v>949</v>
       </c>
-      <c r="G58" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G58" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5192,7 +5162,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5213,7 +5183,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5233,11 +5203,11 @@
       <c r="F61" t="s">
         <v>950</v>
       </c>
-      <c r="G61" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G61" s="25" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5258,7 +5228,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5279,7 +5249,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5300,14 +5270,14 @@
         <v>950</v>
       </c>
       <c r="G64" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C65">
@@ -5328,7 +5298,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C66">
@@ -5344,15 +5314,15 @@
       <c r="F66" t="s">
         <v>949</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>985</v>
+      <c r="G66" s="4" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C67">
@@ -5368,8 +5338,11 @@
       <c r="F67" t="s">
         <v>949</v>
       </c>
-      <c r="G67" t="s">
-        <v>986</v>
+      <c r="G67" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="I67" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -5392,11 +5365,8 @@
       <c r="F68" t="s">
         <v>949</v>
       </c>
-      <c r="G68" t="s">
-        <v>987</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>989</v>
+      <c r="J68" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -5419,9 +5389,6 @@
       <c r="F69" t="s">
         <v>950</v>
       </c>
-      <c r="G69" t="s">
-        <v>988</v>
-      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
@@ -5464,6 +5431,9 @@
       <c r="F71" t="s">
         <v>949</v>
       </c>
+      <c r="G71" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
@@ -5485,6 +5455,9 @@
       <c r="F72" t="s">
         <v>949</v>
       </c>
+      <c r="G72" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
@@ -5506,6 +5479,9 @@
       <c r="F73" t="s">
         <v>949</v>
       </c>
+      <c r="G73" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
@@ -5548,8 +5524,8 @@
       <c r="F75" t="s">
         <v>950</v>
       </c>
-      <c r="G75" t="s">
-        <v>994</v>
+      <c r="H75" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -5594,7 +5570,10 @@
         <v>948</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>990</v>
+        <v>979</v>
+      </c>
+      <c r="H77" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
@@ -5618,7 +5597,7 @@
         <v>949</v>
       </c>
       <c r="G78" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
@@ -5641,8 +5620,8 @@
       <c r="F79" t="s">
         <v>949</v>
       </c>
-      <c r="G79" t="s">
-        <v>994</v>
+      <c r="H79" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -5666,7 +5645,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5687,7 +5666,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5708,7 +5687,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5729,10 +5708,10 @@
         <v>949</v>
       </c>
       <c r="G83" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5753,7 +5732,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5774,7 +5753,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5794,11 +5773,11 @@
       <c r="F86" s="12" t="s">
         <v>950</v>
       </c>
-      <c r="G86" s="16" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H86" s="16" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5818,8 +5797,11 @@
       <c r="F87" s="15" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G87" s="26" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5840,10 +5822,10 @@
         <v>949</v>
       </c>
       <c r="G88" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
         <v>87</v>
       </c>
@@ -5864,10 +5846,10 @@
         <v>949</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5888,7 +5870,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5908,11 +5890,12 @@
       <c r="F91" s="20" t="s">
         <v>950</v>
       </c>
-      <c r="G91" s="16" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G91" s="16"/>
+      <c r="H91" s="16" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5922,8 +5905,8 @@
       <c r="C92" s="14">
         <v>2</v>
       </c>
-      <c r="D92" s="14" t="s">
-        <v>866</v>
+      <c r="D92" s="14">
+        <v>18.399999999999999</v>
       </c>
       <c r="E92" s="14">
         <f t="shared" si="1"/>
@@ -5932,8 +5915,14 @@
       <c r="F92" s="15" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G92" s="26" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="18">
         <v>91</v>
       </c>
@@ -5953,11 +5942,16 @@
       <c r="F93" t="s">
         <v>950</v>
       </c>
-      <c r="G93" s="16" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G93" s="16"/>
+      <c r="J93" t="s">
+        <v>999</v>
+      </c>
+      <c r="K93">
+        <f>ROUND(0.28/18.12*100,3)</f>
+        <v>1.5449999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5977,11 +5971,11 @@
       <c r="F94" s="12" t="s">
         <v>950</v>
       </c>
-      <c r="J94" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G94" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6002,7 +5996,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6023,10 +6017,10 @@
         <v>950</v>
       </c>
       <c r="G96" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6036,7 +6030,7 @@
       <c r="C97" s="19">
         <v>4</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="23" t="s">
         <v>866</v>
       </c>
       <c r="E97" s="19">
@@ -6047,7 +6041,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6068,7 +6062,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6078,7 +6072,7 @@
       <c r="C99" s="14">
         <v>4</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="24" t="s">
         <v>866</v>
       </c>
       <c r="E99" s="14">
@@ -6088,11 +6082,11 @@
       <c r="F99" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="G99" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G99" s="4" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6113,10 +6107,10 @@
         <v>949</v>
       </c>
       <c r="G100" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6137,7 +6131,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6158,10 +6152,10 @@
         <v>950</v>
       </c>
       <c r="G102" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6182,10 +6176,10 @@
         <v>950</v>
       </c>
       <c r="G103" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6195,7 +6189,7 @@
       <c r="C104">
         <v>2</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="19" t="s">
         <v>871</v>
       </c>
       <c r="E104">
@@ -6206,7 +6200,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6216,7 +6210,7 @@
       <c r="C105">
         <v>5</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="19" t="s">
         <v>865</v>
       </c>
       <c r="E105">
@@ -6226,11 +6220,11 @@
       <c r="F105" t="s">
         <v>950</v>
       </c>
-      <c r="G105" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H105" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6240,7 +6234,7 @@
       <c r="C106">
         <v>2</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="19" t="s">
         <v>865</v>
       </c>
       <c r="E106">
@@ -6251,7 +6245,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6261,7 +6255,7 @@
       <c r="C107">
         <v>1</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="19" t="s">
         <v>865</v>
       </c>
       <c r="E107">
@@ -6272,7 +6266,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6282,7 +6276,7 @@
       <c r="C108">
         <v>1</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="19" t="s">
         <v>865</v>
       </c>
       <c r="E108">
@@ -6293,7 +6287,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6303,7 +6297,7 @@
       <c r="C109">
         <v>2</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="19" t="s">
         <v>870</v>
       </c>
       <c r="E109">
@@ -6313,17 +6307,14 @@
       <c r="F109" t="s">
         <v>949</v>
       </c>
-      <c r="G109" t="s">
-        <v>967</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>999</v>
-      </c>
-      <c r="I109" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G109" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H109" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6344,10 +6335,10 @@
         <v>950</v>
       </c>
       <c r="G110" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6368,10 +6359,10 @@
         <v>950</v>
       </c>
       <c r="G111" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6392,7 +6383,7 @@
         <v>950</v>
       </c>
       <c r="G112" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
@@ -6415,8 +6406,8 @@
       <c r="F113" t="s">
         <v>948</v>
       </c>
-      <c r="G113" t="s">
-        <v>984</v>
+      <c r="H113" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
@@ -6439,6 +6430,9 @@
       <c r="F114" t="s">
         <v>948</v>
       </c>
+      <c r="I114" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
@@ -6502,8 +6496,8 @@
       <c r="F117" t="s">
         <v>948</v>
       </c>
-      <c r="G117" t="s">
-        <v>1001</v>
+      <c r="H117" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
@@ -6526,10 +6520,10 @@
       <c r="F118" t="s">
         <v>949</v>
       </c>
+      <c r="G118" s="4" t="s">
+        <v>1006</v>
+      </c>
       <c r="H118" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I118" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -6554,10 +6548,7 @@
         <v>950</v>
       </c>
       <c r="G119" t="s">
-        <v>982</v>
-      </c>
-      <c r="I119" t="s">
-        <v>1005</v>
+        <v>959</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
@@ -6581,7 +6572,7 @@
         <v>950</v>
       </c>
       <c r="G120" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
@@ -6605,7 +6596,7 @@
         <v>950</v>
       </c>
       <c r="G121" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
@@ -6629,7 +6620,7 @@
         <v>950</v>
       </c>
       <c r="G122" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
@@ -6653,7 +6644,7 @@
         <v>950</v>
       </c>
       <c r="G123" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -6698,7 +6689,7 @@
         <v>950</v>
       </c>
       <c r="G125" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
@@ -6764,7 +6755,7 @@
         <v>950</v>
       </c>
       <c r="G128" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
@@ -6788,7 +6779,7 @@
         <v>950</v>
       </c>
       <c r="G129" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
@@ -6837,8 +6828,8 @@
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="24">
-        <v>0.3991319444444445</v>
+      <c r="B132" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -6853,15 +6844,15 @@
       <c r="F132" t="s">
         <v>949</v>
       </c>
-      <c r="G132" t="s">
-        <v>984</v>
+      <c r="H132" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C133">
@@ -6983,7 +6974,10 @@
         <v>949</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>1006</v>
+        <v>970</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1007</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>1008</v>
@@ -7052,10 +7046,10 @@
         <v>950</v>
       </c>
       <c r="G141" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
       <c r="H141" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
@@ -7100,7 +7094,7 @@
         <v>950</v>
       </c>
       <c r="G143" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
@@ -7123,11 +7117,11 @@
       <c r="F144" s="20" t="s">
         <v>948</v>
       </c>
-      <c r="G144" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H144" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7148,7 +7142,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7168,11 +7162,12 @@
       <c r="F146" s="20" t="s">
         <v>949</v>
       </c>
-      <c r="G146" s="16" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G146" s="16"/>
+      <c r="H146" s="16" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7192,11 +7187,12 @@
       <c r="F147" s="20" t="s">
         <v>949</v>
       </c>
-      <c r="G147" s="16" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G147" s="16"/>
+      <c r="H147" s="16" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7217,7 +7213,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7238,7 +7234,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7259,7 +7255,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7280,7 +7276,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7301,10 +7297,10 @@
         <v>950</v>
       </c>
       <c r="G152" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7324,8 +7320,11 @@
       <c r="F153" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G153" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7346,7 +7345,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7408,8 +7407,11 @@
       <c r="F157" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G157" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7429,8 +7431,11 @@
       <c r="F158" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H158" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -7471,8 +7476,11 @@
       <c r="F160" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G160" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -7492,8 +7500,11 @@
       <c r="F161" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G161" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7513,8 +7524,11 @@
       <c r="F162" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G162" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -7534,8 +7548,11 @@
       <c r="F163" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H163" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7555,8 +7572,14 @@
       <c r="F164" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G164" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="H164" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7577,7 +7600,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7597,8 +7620,14 @@
       <c r="F166" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G166" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7619,7 +7648,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7640,7 +7669,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7661,7 +7690,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7682,7 +7711,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7702,8 +7731,11 @@
       <c r="F171" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G171" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7723,8 +7755,17 @@
       <c r="F172" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G172" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7744,8 +7785,11 @@
       <c r="F173" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G173" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7766,7 +7810,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7787,7 +7831,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7808,7 +7852,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7829,7 +7873,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -7850,7 +7894,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -7871,7 +7915,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7892,7 +7936,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -7913,7 +7957,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -7933,8 +7977,11 @@
       <c r="F182" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G182" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -7954,12 +8001,15 @@
       <c r="F183" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G183" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C184">
@@ -7975,12 +8025,15 @@
       <c r="F184" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H184" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C185">
@@ -7997,11 +8050,11 @@
         <v>950</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C186">
@@ -8017,12 +8070,15 @@
       <c r="F186" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H186" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C187">
@@ -8039,7 +8095,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8060,7 +8116,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8080,8 +8136,11 @@
       <c r="F189" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H189" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8091,8 +8150,8 @@
       <c r="C190">
         <v>1</v>
       </c>
-      <c r="D190" t="s">
-        <v>893</v>
+      <c r="D190">
+        <v>17.579999999999998</v>
       </c>
       <c r="E190">
         <f t="shared" si="2"/>
@@ -8101,8 +8160,11 @@
       <c r="F190" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="J190" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8123,7 +8185,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -34295,6 +34357,6 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/01801.xlsx
+++ b/Docs/01801.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Python\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Python\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4525" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="1111">
   <si>
     <t>time</t>
   </si>
@@ -3241,10 +3241,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>B212</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>挂17.13</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3346,6 +3342,170 @@
   </si>
   <si>
     <t>S18</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.76-</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新低</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.58+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B228</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    B218</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.54+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B219</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.34+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B23</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.28-</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新低</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B220</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.24+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B229</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.18-</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.06+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的反弹失败太经典了。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为17.06只是一手？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B220</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是有预兆的，作为一个反弹，buy反而下降了。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为buy的价格在下降，所以反弹不成立</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.0-</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>01012 要等第二次的2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.0+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.94-</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败~</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为2是一手？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.94+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里卖1好像还有力量，说明盘口是有效的数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>该涨的，结果卖1源源不断</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3759,74 +3919,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3846,7 +3938,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4125,13 +4217,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1438"/>
+  <dimension ref="A1:L1438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B327" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B544" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H350" sqref="H350"/>
+      <selection pane="bottomRight" activeCell="N578" sqref="N578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9345,7 +9437,7 @@
         <v>950</v>
       </c>
       <c r="G226" s="20" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I226" s="3" t="s">
         <v>1039</v>
@@ -9396,7 +9488,7 @@
         <v>948</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>1044</v>
+        <v>1078</v>
       </c>
       <c r="H228" t="s">
         <v>1036</v>
@@ -9492,7 +9584,7 @@
         <v>1042</v>
       </c>
       <c r="I232" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.15">
@@ -9516,7 +9608,7 @@
         <v>949</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H233" t="s">
         <v>1041</v>
@@ -9852,7 +9944,7 @@
         <v>950</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H248" t="s">
         <v>1021</v>
@@ -9984,7 +10076,7 @@
         <v>949</v>
       </c>
       <c r="G254" s="20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.15">
@@ -10053,7 +10145,7 @@
         <v>949</v>
       </c>
       <c r="G257" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.15">
@@ -10203,7 +10295,7 @@
         <v>950</v>
       </c>
       <c r="H264" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.15">
@@ -10227,10 +10319,10 @@
         <v>950</v>
       </c>
       <c r="H265" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="J265" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K265">
         <v>0.32</v>
@@ -10404,7 +10496,7 @@
         <v>949</v>
       </c>
       <c r="G273" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.15">
@@ -10428,7 +10520,7 @@
         <v>950</v>
       </c>
       <c r="G274" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.15">
@@ -10500,10 +10592,10 @@
         <v>1031</v>
       </c>
       <c r="H277" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J277" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.15">
@@ -10569,10 +10661,10 @@
         <v>950</v>
       </c>
       <c r="G280" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J280" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K280">
         <v>-0.06</v>
@@ -10644,10 +10736,10 @@
         <v>949</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H283" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.15">
@@ -10800,13 +10892,13 @@
         <v>949</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H290" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="J290" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.15">
@@ -10938,10 +11030,10 @@
         <v>950</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H296" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.15">
@@ -11112,10 +11204,10 @@
         <v>950</v>
       </c>
       <c r="G304" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="J304" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K304">
         <v>-0.06</v>
@@ -11142,7 +11234,7 @@
         <v>949</v>
       </c>
       <c r="H305" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.15">
@@ -11166,13 +11258,13 @@
         <v>949</v>
       </c>
       <c r="G306" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H306" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J306" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.15">
@@ -11196,7 +11288,7 @@
         <v>950</v>
       </c>
       <c r="H307" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.15">
@@ -11283,10 +11375,10 @@
         <v>950</v>
       </c>
       <c r="H311" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="J311" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="K311">
         <v>-0.04</v>
@@ -11505,13 +11597,13 @@
         <v>949</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H321" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J321" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.15">
@@ -11799,7 +11891,7 @@
         <v>949</v>
       </c>
       <c r="H334" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.15">
@@ -11844,13 +11936,13 @@
         <v>949</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H336" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -11871,7 +11963,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -11892,7 +11984,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -11916,7 +12008,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -11940,7 +12032,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -11964,7 +12056,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -11984,11 +12076,8 @@
       <c r="F342" t="s">
         <v>949</v>
       </c>
-      <c r="G342" s="3" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -12008,8 +12097,11 @@
       <c r="F343" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G343" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -12030,7 +12122,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -12051,7 +12143,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -12072,7 +12164,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -12093,7 +12185,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -12113,11 +12205,11 @@
       <c r="F348" t="s">
         <v>949</v>
       </c>
-      <c r="G348" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G348" s="22" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -12138,10 +12230,10 @@
         <v>949</v>
       </c>
       <c r="H349" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -12161,8 +12253,21 @@
       <c r="F350" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G350" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H350" t="s">
+        <v>997</v>
+      </c>
+      <c r="J350" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K350">
+        <f>17.76-16.56</f>
+        <v>1.2000000000000028</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -12183,7 +12288,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -12203,8 +12308,11 @@
       <c r="F352" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G352" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -12225,7 +12333,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -12245,8 +12353,11 @@
       <c r="F354" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G354" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -12267,7 +12378,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -12287,8 +12398,11 @@
       <c r="F356" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G356" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -12308,8 +12422,11 @@
       <c r="F357" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G357" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -12330,7 +12447,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -12351,7 +12468,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -12372,7 +12489,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -12393,7 +12510,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -12413,8 +12530,11 @@
       <c r="F362" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G362" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -12435,7 +12555,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -12456,7 +12576,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -12477,7 +12597,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -12498,7 +12618,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -12519,7 +12639,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -12540,7 +12660,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -12560,8 +12680,11 @@
       <c r="F369" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G369" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -12582,7 +12705,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -12602,8 +12725,11 @@
       <c r="F371" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G371" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -12624,7 +12750,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -12644,8 +12770,11 @@
       <c r="F373" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G373" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -12666,7 +12795,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -12687,7 +12816,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -12708,7 +12837,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -12729,7 +12858,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -12750,7 +12879,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -12771,7 +12900,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -12792,7 +12921,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -12813,7 +12942,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -12834,7 +12963,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -12854,8 +12983,11 @@
       <c r="F383" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G383" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -12876,7 +13008,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -12896,8 +13028,11 @@
       <c r="F385" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G385" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -12918,7 +13053,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -12939,7 +13074,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -12960,7 +13095,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -12981,11 +13116,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C390" s="25">
@@ -13002,11 +13137,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="5" t="s">
         <v>206</v>
       </c>
       <c r="C391" s="25">
@@ -13022,12 +13157,15 @@
       <c r="F391" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G391" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C392" s="25">
@@ -13043,8 +13181,11 @@
       <c r="F392" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H392" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -13065,7 +13206,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -13086,7 +13227,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -13107,7 +13248,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -13128,7 +13269,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -13148,8 +13289,17 @@
       <c r="F397" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G397" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H397" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J397" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -13169,8 +13319,11 @@
       <c r="F398" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H398" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -13191,7 +13344,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -13212,7 +13365,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -13232,8 +13385,17 @@
       <c r="F401" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G401" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J401" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K401">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -13254,7 +13416,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -13275,7 +13437,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -13296,7 +13458,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -13317,7 +13479,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -13338,7 +13500,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -13359,7 +13521,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -13380,7 +13542,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -13401,7 +13563,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -13421,8 +13583,11 @@
       <c r="F410" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G410" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -13442,8 +13607,11 @@
       <c r="F411" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H411" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -13464,7 +13632,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -13484,12 +13652,15 @@
       <c r="F413" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G413" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
         <v>412</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C414" s="25">
@@ -13505,12 +13676,15 @@
       <c r="F414" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H414" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="5" t="s">
         <v>225</v>
       </c>
       <c r="C415" s="25">
@@ -13527,11 +13701,11 @@
         <v>950</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="5" t="s">
         <v>225</v>
       </c>
       <c r="C416" s="25">
@@ -13548,11 +13722,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="6" t="s">
         <v>225</v>
       </c>
       <c r="C417" s="25">
@@ -13569,7 +13743,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -13589,8 +13763,11 @@
       <c r="F418" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G418" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -13611,7 +13788,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -13631,8 +13808,11 @@
       <c r="F420" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G420" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -13652,8 +13832,11 @@
       <c r="F421" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G421" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -13674,7 +13857,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -13695,7 +13878,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -13716,7 +13899,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -13737,7 +13920,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -13757,8 +13940,11 @@
       <c r="F426" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G426" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -13779,7 +13965,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -13800,7 +13986,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -13820,8 +14006,11 @@
       <c r="F429" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G429" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -13841,8 +14030,11 @@
       <c r="F430" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G430" s="20" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -13863,7 +14055,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -13884,7 +14076,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -13905,7 +14097,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -13926,7 +14118,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -13946,8 +14138,11 @@
       <c r="F435" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H435" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -13968,7 +14163,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -13989,7 +14184,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -14010,7 +14205,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -14031,7 +14226,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -14052,7 +14247,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -14073,7 +14268,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -14093,8 +14288,17 @@
       <c r="F442" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G442" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H442" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J442" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -14114,8 +14318,11 @@
       <c r="F443" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G443" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -14136,7 +14343,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -14157,7 +14364,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -14177,8 +14384,11 @@
       <c r="F446" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G446" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -14198,12 +14408,15 @@
       <c r="F447" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G447" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
         <v>446</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C448" s="25">
@@ -14219,12 +14432,15 @@
       <c r="F448" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H448">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
         <v>447</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="5" t="s">
         <v>239</v>
       </c>
       <c r="C449" s="25">
@@ -14240,12 +14456,15 @@
       <c r="F449" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H449">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
         <v>448</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="5" t="s">
         <v>239</v>
       </c>
       <c r="C450" s="25">
@@ -14261,12 +14480,15 @@
       <c r="F450" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H450">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="5" t="s">
         <v>239</v>
       </c>
       <c r="C451" s="25">
@@ -14283,11 +14505,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="5" t="s">
         <v>239</v>
       </c>
       <c r="C452" s="25">
@@ -14304,11 +14526,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="5" t="s">
         <v>239</v>
       </c>
       <c r="C453" s="25">
@@ -14325,11 +14547,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="5" t="s">
         <v>239</v>
       </c>
       <c r="C454" s="25">
@@ -14346,11 +14568,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
         <v>453</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="5" t="s">
         <v>239</v>
       </c>
       <c r="C455" s="25">
@@ -14367,11 +14589,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>454</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="5" t="s">
         <v>239</v>
       </c>
       <c r="C456" s="25">
@@ -14388,11 +14610,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="5" t="s">
         <v>239</v>
       </c>
       <c r="C457" s="25">
@@ -14409,11 +14631,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
         <v>456</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="6" t="s">
         <v>239</v>
       </c>
       <c r="C458" s="25">
@@ -14430,7 +14652,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -14450,8 +14672,14 @@
       <c r="F459" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G459" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J459" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -14472,7 +14700,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -14493,7 +14721,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -14513,8 +14741,11 @@
       <c r="F462" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G462" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -14534,8 +14765,11 @@
       <c r="F463" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -14556,11 +14790,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
         <v>463</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C465" s="25">
@@ -14577,11 +14811,11 @@
         <v>950</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
         <v>464</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C466" s="25">
@@ -14597,12 +14831,15 @@
       <c r="F466" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G466" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
         <v>465</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C467" s="25">
@@ -14618,12 +14855,15 @@
       <c r="F467" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G467" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
         <v>466</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C468" s="25">
@@ -14639,12 +14879,15 @@
       <c r="F468" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C469" s="25">
@@ -14661,11 +14904,11 @@
         <v>950</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C470" s="25">
@@ -14682,11 +14925,11 @@
         <v>950</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C471" s="25">
@@ -14703,11 +14946,11 @@
         <v>950</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C472" s="25">
@@ -14723,12 +14966,15 @@
       <c r="F472" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
         <v>471</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C473" s="25">
@@ -14745,11 +14991,11 @@
         <v>948</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
         <v>472</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C474" s="25">
@@ -14765,12 +15011,15 @@
       <c r="F474" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>473</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C475" s="25">
@@ -14786,12 +15035,18 @@
       <c r="F475" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G475" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H475">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
         <v>474</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="6" t="s">
         <v>244</v>
       </c>
       <c r="C476" s="25">
@@ -14807,8 +15062,11 @@
       <c r="F476" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H476">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -14828,8 +15086,17 @@
       <c r="F477" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G477" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J477" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K477" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -14850,7 +15117,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -14871,7 +15138,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -14892,7 +15159,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -14913,7 +15180,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -14934,7 +15201,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -14955,7 +15222,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -14976,7 +15243,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -14997,7 +15264,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -15017,8 +15284,14 @@
       <c r="F486" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G486" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J486" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -15039,7 +15312,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -15060,7 +15333,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -15081,7 +15354,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -15102,7 +15375,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -15123,7 +15396,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -15143,8 +15416,11 @@
       <c r="F492" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G492" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -15164,8 +15440,11 @@
       <c r="F493" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G493" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -15186,7 +15465,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -15207,7 +15486,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -15228,7 +15507,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -15249,7 +15528,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -15270,7 +15549,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -15291,7 +15570,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -15312,7 +15591,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -15333,7 +15612,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -15353,8 +15632,11 @@
       <c r="F502" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G502" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -15375,7 +15657,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -15396,7 +15678,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -15417,7 +15699,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -15438,7 +15720,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -15458,8 +15740,11 @@
       <c r="F507" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G507" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -15480,7 +15765,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -15501,7 +15786,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -15522,7 +15807,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -15542,8 +15827,11 @@
       <c r="F511" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G511" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -15563,8 +15851,11 @@
       <c r="F512" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G512" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -15585,7 +15876,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -15605,8 +15896,11 @@
       <c r="F514" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G514" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -15626,8 +15920,11 @@
       <c r="F515" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H515" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -15648,7 +15945,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -15669,7 +15966,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -15690,7 +15987,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -15710,8 +16007,11 @@
       <c r="F519" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G519" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -15731,8 +16031,11 @@
       <c r="F520" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -15753,7 +16056,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -15774,7 +16077,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -15794,8 +16097,23 @@
       <c r="F523" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G523" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H523">
+        <v>2</v>
+      </c>
+      <c r="J523" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K523" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L523" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -15815,8 +16133,11 @@
       <c r="F524" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="L524" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -15837,7 +16158,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -15857,8 +16178,17 @@
       <c r="F526" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G526">
+        <v>17.04</v>
+      </c>
+      <c r="H526">
+        <v>3</v>
+      </c>
+      <c r="L526" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -15878,8 +16208,11 @@
       <c r="F527" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="L527" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -15900,7 +16233,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -15921,7 +16254,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -15942,7 +16275,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -15963,7 +16296,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -15984,7 +16317,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -16004,8 +16337,11 @@
       <c r="F533" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G533" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -16026,7 +16362,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -16046,8 +16382,14 @@
       <c r="F535" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="J535" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K535">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -16068,7 +16410,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -16089,7 +16431,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -16110,7 +16452,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -16131,7 +16473,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -16151,8 +16493,11 @@
       <c r="F540" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G540" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -16172,8 +16517,14 @@
       <c r="F541" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G541" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -16193,8 +16544,11 @@
       <c r="F542" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -16215,7 +16569,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -16236,7 +16590,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -16257,7 +16611,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -16278,7 +16632,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -16299,7 +16653,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -16320,7 +16674,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -16341,7 +16695,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -16362,7 +16716,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -16383,7 +16737,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -16403,8 +16757,11 @@
       <c r="F552" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -16424,8 +16781,11 @@
       <c r="F553" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -16446,7 +16806,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -16467,7 +16827,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -16487,8 +16847,20 @@
       <c r="F556" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H556">
+        <v>2</v>
+      </c>
+      <c r="J556" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K556" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="L556" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -16509,7 +16881,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -16530,7 +16902,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -16551,7 +16923,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -16572,7 +16944,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -16592,8 +16964,11 @@
       <c r="F561" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="K561" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -16613,8 +16988,11 @@
       <c r="F562" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="K562" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -16634,8 +17012,14 @@
       <c r="F563" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G563" t="s">
+        <v>967</v>
+      </c>
+      <c r="J563" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -16656,7 +17040,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -16676,8 +17060,14 @@
       <c r="F565" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G565" t="s">
+        <v>967</v>
+      </c>
+      <c r="H565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -16697,8 +17087,11 @@
       <c r="F566" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -16719,7 +17112,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -16739,8 +17132,11 @@
       <c r="F568" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -16760,8 +17156,11 @@
       <c r="F569" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -16782,7 +17181,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -16802,8 +17201,11 @@
       <c r="F571" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -16823,8 +17225,11 @@
       <c r="F572" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -16845,7 +17250,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -16865,8 +17270,14 @@
       <c r="F574" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H574">
+        <v>2</v>
+      </c>
+      <c r="J574" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -16887,7 +17298,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
         <v>574</v>
       </c>

--- a/Docs/01801.xlsx
+++ b/Docs/01801.xlsx
@@ -4220,10 +4220,10 @@
   <dimension ref="A1:L1438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B544" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B550" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N578" sqref="N578"/>
+      <selection pane="bottomRight" activeCell="N569" sqref="N569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Docs/01801.xlsx
+++ b/Docs/01801.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01801" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -4219,7 +4220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B550" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -35411,4 +35412,89 @@
     <ignoredError sqref="D171" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B17:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>0.14649999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C18">
+        <f>B18-B17</f>
+        <v>1.5000000000000013E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C24" si="0">B19-B18</f>
+        <v>-8.9999999999998415E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-1.6000000000000181E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3.0000000000002247E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>0.1462</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>3.999999999999837E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>0.1452</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2.7999999999999969E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>